--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DE064F-E11A-4C0D-AA2C-9B001FD459CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC641E7A-6B93-4E6B-9CB3-8A747AEB443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Details" sheetId="1" r:id="rId1"/>
@@ -40,24 +40,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={56CFBDA9-2DB2-41E8-8F8B-DC2F2E8863A8}</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{56CFBDA9-2DB2-41E8-8F8B-DC2F2E8863A8}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ABC</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={EA1501C2-1D37-47CC-8001-3A6BD7DFB7A9}</author>
   </authors>
   <commentList>
@@ -74,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
   <si>
     <t>Task Name</t>
   </si>
@@ -347,6 +329,12 @@
   </si>
   <si>
     <t xml:space="preserve">Updare ACH &amp; wire payment </t>
+  </si>
+  <si>
+    <t>Security Console</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
   </si>
 </sst>
 </file>
@@ -722,14 +710,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C2" dT="2024-11-05T09:49:33.86" personId="{02FCD4F6-DFE5-4012-9EE3-08A3D4226794}" id="{56CFBDA9-2DB2-41E8-8F8B-DC2F2E8863A8}">
-    <text>ABC</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C33" dT="2024-11-05T09:49:33.86" personId="{02FCD4F6-DFE5-4012-9EE3-08A3D4226794}" id="{EA1501C2-1D37-47CC-8001-3A6BD7DFB7A9}">
     <text>ABC</text>
   </threadedComment>
@@ -737,11 +717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,12 +776,14 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -814,16 +796,15 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9868C259-FF60-4EA9-9DDA-810F97FA19C4}">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,6 +1284,33 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>109</v>
+      </c>
+      <c r="B40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>110</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC641E7A-6B93-4E6B-9CB3-8A747AEB443F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D13788B-6C73-40FC-8CFA-C4CFC8D4F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Details" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
   <si>
     <t>Task Name</t>
   </si>
@@ -335,6 +335,27 @@
   </si>
   <si>
     <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>Manage Payment Process Profile</t>
+  </si>
+  <si>
+    <t>ANSI X12 820</t>
+  </si>
+  <si>
+    <t>BP_Training_DemoPPP</t>
+  </si>
+  <si>
+    <t>Bank Transfer Request</t>
+  </si>
+  <si>
+    <t>bdkjabdknk</t>
+  </si>
+  <si>
+    <t>ldnsldnlsn</t>
+  </si>
+  <si>
+    <t>Automation Testingdnksnsndlksmn</t>
   </si>
 </sst>
 </file>
@@ -718,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -775,23 +796,54 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>91</v>
+      <c r="A2" s="2">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -803,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9868C259-FF60-4EA9-9DDA-810F97FA19C4}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1326,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDCFF5-2C46-4D2E-ABB2-9326953A48F0}">
-  <dimension ref="B1:M18"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,14 +1501,47 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>111</v>
+      </c>
+      <c r="B28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D13788B-6C73-40FC-8CFA-C4CFC8D4F77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A7CE2-CEF4-43AD-A3B4-81DA344432B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
   <si>
     <t>Task Name</t>
   </si>
@@ -349,13 +349,16 @@
     <t>Bank Transfer Request</t>
   </si>
   <si>
-    <t>bdkjabdknk</t>
-  </si>
-  <si>
-    <t>ldnsldnlsn</t>
-  </si>
-  <si>
-    <t>Automation Testingdnksnsndlksmn</t>
+    <t>Manage Receivables System Options</t>
+  </si>
+  <si>
+    <t>Healthcare US Business Unit</t>
+  </si>
+  <si>
+    <t>Spain Business Unit</t>
+  </si>
+  <si>
+    <t>UK Business Unit</t>
   </si>
 </sst>
 </file>
@@ -739,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -796,54 +799,53 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>101</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="A2">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
         <v>97</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C2" t="s">
         <v>98</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>102</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="A3">
+        <v>112</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" t="s">
         <v>99</v>
       </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -853,10 +855,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9868C259-FF60-4EA9-9DDA-810F97FA19C4}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:XFD35"/>
+      <selection activeCell="A42" sqref="A42:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,6 +1366,39 @@
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
     </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>111</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>111</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{A982AFEB-19AD-4DA3-879F-51A48DCBB019}"/>
@@ -1378,15 +1413,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDCFF5-2C46-4D2E-ABB2-9326953A48F0}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="A26" sqref="A26:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1501,47 +1536,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>111</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>111</v>
-      </c>
-      <c r="B28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878A7CE2-CEF4-43AD-A3B4-81DA344432B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2368DAF7-3620-426B-A160-C3F9C51E2E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Output Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Output Details" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,6 +41,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={638BCC03-DEA8-4E2F-AB2E-A30E69647210}</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{638BCC03-DEA8-4E2F-AB2E-A30E69647210}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ABC</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={EA1501C2-1D37-47CC-8001-3A6BD7DFB7A9}</author>
   </authors>
   <commentList>
@@ -56,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>Task Name</t>
   </si>
@@ -349,16 +368,100 @@
     <t>Bank Transfer Request</t>
   </si>
   <si>
+    <t>lkanmdlamldnalml</t>
+  </si>
+  <si>
+    <t>Testing in Progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing In Progress 2 </t>
+  </si>
+  <si>
+    <t>Testing in Progress 3</t>
+  </si>
+  <si>
+    <t>Testing in Progress 4</t>
+  </si>
+  <si>
+    <t>Testing in Progress 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtask ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processs Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires the Configuration Name required, Required the config In which the Column needs to be updated </t>
+  </si>
+  <si>
+    <t>Manage Administrative Profile Values</t>
+  </si>
+  <si>
+    <t>Just Required the Value1 for it Which will change the Banner name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Job Submission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Disbursement System Option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put the Value of email needs to be changed </t>
+  </si>
+  <si>
+    <t>Manage Supplier Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run GL Process </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send the Value for  need to pass the value for it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Value Required </t>
+  </si>
+  <si>
+    <t>Disable Notification in BPM worklist</t>
+  </si>
+  <si>
+    <t>Manage Journal Approvals</t>
+  </si>
+  <si>
+    <t>Just Required the User Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Required the One Value for it </t>
+  </si>
+  <si>
     <t>Manage Receivables System Options</t>
   </si>
   <si>
-    <t>Healthcare US Business Unit</t>
-  </si>
-  <si>
-    <t>Spain Business Unit</t>
-  </si>
-  <si>
-    <t>UK Business Unit</t>
+    <t xml:space="preserve">Automation is Going on </t>
+  </si>
+  <si>
+    <t>Achyut.Kumar@us.gt.com</t>
+  </si>
+  <si>
+    <t>Sni</t>
+  </si>
+  <si>
+    <t>Australia Business Unit</t>
+  </si>
+  <si>
+    <t>Belgium Business Unit</t>
+  </si>
+  <si>
+    <t>ESS Job Submission</t>
+  </si>
+  <si>
+    <t>Manage Disbursement System Option</t>
+  </si>
+  <si>
+    <t>Run GL Process</t>
   </si>
 </sst>
 </file>
@@ -410,7 +513,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -433,20 +536,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -734,6 +853,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2024-11-05T09:49:33.86" personId="{02FCD4F6-DFE5-4012-9EE3-08A3D4226794}" id="{638BCC03-DEA8-4E2F-AB2E-A30E69647210}">
+    <text>ABC</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C33" dT="2024-11-05T09:49:33.86" personId="{02FCD4F6-DFE5-4012-9EE3-08A3D4226794}" id="{EA1501C2-1D37-47CC-8001-3A6BD7DFB7A9}">
     <text>ABC</text>
   </threadedComment>
@@ -741,18 +868,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="36" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
@@ -764,101 +891,561 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>112</v>
       </c>
-      <c r="B3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="B16" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>112</v>
       </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C4" t="s">
-        <v>100</v>
-      </c>
+      <c r="B17" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{0F008225-C4F1-4A65-AD42-E6A04B12CA67}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{8ED098E8-EA60-4812-9111-BCC89B707605}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4523DD-BA3B-4BC0-A67B-C9C7FEBDE0A6}">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="97.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>101</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>104</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>107</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>111</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>112</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9868C259-FF60-4EA9-9DDA-810F97FA19C4}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C66" sqref="C66:D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,454 +1461,454 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="2">
+      <c r="A1" s="1">
         <v>101</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>102</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="F2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>103</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>104</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>105</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>106</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>101</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>101</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>101</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>101</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>102</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>103</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2" t="s">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32" s="1">
         <v>104</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33" s="1">
         <v>101</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="H33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="I33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34" s="1">
         <v>101</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>102</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="4">
         <v>105</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37" s="1">
         <v>106</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="H37" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="7" t="s">
+      <c r="I37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1354,17 +1941,17 @@
       <c r="B41" t="s">
         <v>91</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1397,6 +1984,132 @@
       </c>
       <c r="C44" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>102</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
+        <v>105</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>106</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>107</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>108</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>109</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>110</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>111</v>
+      </c>
+      <c r="F68" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1411,7 +2124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDCFF5-2C46-4D2E-ABB2-9326953A48F0}">
   <dimension ref="B1:M18"/>
   <sheetViews>

--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2368DAF7-3620-426B-A160-C3F9C51E2E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCB9B0D-ED05-4F35-B307-DE3EA12177CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Details" sheetId="1" r:id="rId1"/>
@@ -871,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4523DD-BA3B-4BC0-A67B-C9C7FEBDE0A6}">
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,7 +2129,7 @@
   <dimension ref="B1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:C28"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCB9B0D-ED05-4F35-B307-DE3EA12177CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1183070-2E31-4D98-A9EF-9BF681FC058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Details" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="130">
   <si>
     <t>Task Name</t>
   </si>
@@ -371,21 +371,6 @@
     <t>lkanmdlamldnalml</t>
   </si>
   <si>
-    <t>Testing in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing In Progress 2 </t>
-  </si>
-  <si>
-    <t>Testing in Progress 3</t>
-  </si>
-  <si>
-    <t>Testing in Progress 4</t>
-  </si>
-  <si>
-    <t>Testing in Progress 5</t>
-  </si>
-  <si>
     <t xml:space="preserve">Subtask ID </t>
   </si>
   <si>
@@ -440,9 +425,6 @@
     <t>Manage Receivables System Options</t>
   </si>
   <si>
-    <t xml:space="preserve">Automation is Going on </t>
-  </si>
-  <si>
     <t>Achyut.Kumar@us.gt.com</t>
   </si>
   <si>
@@ -462,6 +444,27 @@
   </si>
   <si>
     <t>Run GL Process</t>
+  </si>
+  <si>
+    <t>JOKJSLFDLS</t>
+  </si>
+  <si>
+    <t>KSNFLMSLKM</t>
+  </si>
+  <si>
+    <t>FKSLFNLSM</t>
+  </si>
+  <si>
+    <t>LFSMFSM</t>
+  </si>
+  <si>
+    <t>GFDSDS</t>
+  </si>
+  <si>
+    <t>DSMDSM</t>
+  </si>
+  <si>
+    <t>SFLKSMFS</t>
   </si>
 </sst>
 </file>
@@ -869,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,19 +942,19 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>128</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>125</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -970,13 +973,13 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>101</v>
+        <v>129</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -988,7 +991,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
@@ -997,7 +1000,7 @@
         <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1006,269 +1009,10 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>103</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>106</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>107</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>108</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>109</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>110</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>111</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>111</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>111</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>112</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>112</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{0F008225-C4F1-4A65-AD42-E6A04B12CA67}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{8ED098E8-EA60-4812-9111-BCC89B707605}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1276,7 +1020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB4523DD-BA3B-4BC0-A67B-C9C7FEBDE0A6}">
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -1289,13 +1033,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -1306,7 +1050,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -1314,10 +1058,10 @@
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -1325,10 +1069,10 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1336,10 +1080,10 @@
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1347,10 +1091,10 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -1358,10 +1102,10 @@
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -1372,7 +1116,7 @@
         <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1380,10 +1124,10 @@
         <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -1391,10 +1135,10 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -1405,7 +1149,7 @@
         <v>91</v>
       </c>
       <c r="D12" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -1416,7 +1160,7 @@
         <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -1424,15 +1168,15 @@
         <v>112</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2126,10 +1870,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDCFF5-2C46-4D2E-ABB2-9326953A48F0}">
-  <dimension ref="B1:M18"/>
+  <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="A23" sqref="A23:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,17 +1993,276 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I17" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>103</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>104</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>105</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>106</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>108</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>109</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>110</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>111</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>111</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>112</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>112</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D24" r:id="rId1" xr:uid="{0F008225-C4F1-4A65-AD42-E6A04B12CA67}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{8ED098E8-EA60-4812-9111-BCC89B707605}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1183070-2E31-4D98-A9EF-9BF681FC058C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0623FF48-AB94-437A-AC3C-D7C0948E1FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
   <si>
     <t>Task Name</t>
   </si>
@@ -872,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,10 +1009,269 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>103</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>105</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>106</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>107</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>108</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>111</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>111</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>112</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>112</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{3EDB424A-1088-4FD5-ACE2-1D912694ED04}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{94B2E841-2137-458B-826A-A26C32829FF1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0623FF48-AB94-437A-AC3C-D7C0948E1FE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C427EAA-E01C-4DF5-A78F-10F0F3E86C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Details" sheetId="1" r:id="rId1"/>
@@ -41,24 +41,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={638BCC03-DEA8-4E2F-AB2E-A30E69647210}</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{638BCC03-DEA8-4E2F-AB2E-A30E69647210}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ABC</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={EA1501C2-1D37-47CC-8001-3A6BD7DFB7A9}</author>
   </authors>
   <commentList>
@@ -75,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
   <si>
     <t>Task Name</t>
   </si>
@@ -447,24 +429,6 @@
   </si>
   <si>
     <t>JOKJSLFDLS</t>
-  </si>
-  <si>
-    <t>KSNFLMSLKM</t>
-  </si>
-  <si>
-    <t>FKSLFNLSM</t>
-  </si>
-  <si>
-    <t>LFSMFSM</t>
-  </si>
-  <si>
-    <t>GFDSDS</t>
-  </si>
-  <si>
-    <t>DSMDSM</t>
-  </si>
-  <si>
-    <t>SFLKSMFS</t>
   </si>
 </sst>
 </file>
@@ -856,14 +820,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C2" dT="2024-11-05T09:49:33.86" personId="{02FCD4F6-DFE5-4012-9EE3-08A3D4226794}" id="{638BCC03-DEA8-4E2F-AB2E-A30E69647210}">
-    <text>ABC</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C33" dT="2024-11-05T09:49:33.86" personId="{02FCD4F6-DFE5-4012-9EE3-08A3D4226794}" id="{EA1501C2-1D37-47CC-8001-3A6BD7DFB7A9}">
     <text>ABC</text>
   </threadedComment>
@@ -871,11 +827,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,349 +885,41 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>101</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>101</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="A3">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>102</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>103</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>104</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>106</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>107</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>108</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="A4">
         <v>111</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>109</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>110</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>111</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="B4" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>111</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>111</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>112</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>112</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{3EDB424A-1088-4FD5-ACE2-1D912694ED04}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{94B2E841-2137-458B-826A-A26C32829FF1}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1280,7 +928,7 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="B9" sqref="B9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1447,8 +1095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9868C259-FF60-4EA9-9DDA-810F97FA19C4}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C66" sqref="C66:D68"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDCFF5-2C46-4D2E-ABB2-9326953A48F0}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD35"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2517,10 +2165,290 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>102</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>103</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>104</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>107</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>108</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>109</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>110</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>111</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>111</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>111</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>112</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>112</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D24" r:id="rId1" xr:uid="{0F008225-C4F1-4A65-AD42-E6A04B12CA67}"/>
     <hyperlink ref="F24" r:id="rId2" xr:uid="{8ED098E8-EA60-4812-9111-BCC89B707605}"/>
+    <hyperlink ref="F41" r:id="rId3" xr:uid="{94B2E841-2137-458B-826A-A26C32829FF1}"/>
+    <hyperlink ref="D41" r:id="rId4" xr:uid="{3EDB424A-1088-4FD5-ACE2-1D912694ED04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C427EAA-E01C-4DF5-A78F-10F0F3E86C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{FAD1E3E0-D7F4-4645-BFB4-923D303F7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F5C115-502F-4C32-A5E1-2E9A2CAA20A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Output Details" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,6 +41,24 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={DD2F0BCC-6225-4032-90C6-62D8618D1CF4}</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{DD2F0BCC-6225-4032-90C6-62D8618D1CF4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ABC</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>tc={EA1501C2-1D37-47CC-8001-3A6BD7DFB7A9}</author>
   </authors>
   <commentList>
@@ -57,7 +75,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
+  <si>
+    <t>Subtask ID</t>
+  </si>
   <si>
     <t>Task Name</t>
   </si>
@@ -98,24 +119,105 @@
     <t>File Directory</t>
   </si>
   <si>
+    <t>snflsnlfnslnslnl</t>
+  </si>
+  <si>
     <t>File Name</t>
   </si>
   <si>
+    <t>nskofnsknsokfnskonm</t>
+  </si>
+  <si>
     <t>Append To File (Y/N)</t>
   </si>
   <si>
+    <t>fklsnklsndlksn</t>
+  </si>
+  <si>
     <t>SDD - Acknowledgement</t>
   </si>
   <si>
     <t>*Account Name</t>
   </si>
   <si>
+    <t>oshfosfonsofno</t>
+  </si>
+  <si>
+    <t>*File Name</t>
+  </si>
+  <si>
+    <t>okdoksndonso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtask ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processs Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires the Configuration Name required, Required the config In which the Column needs to be updated </t>
+  </si>
+  <si>
+    <t>Manage Administrative Profile Values</t>
+  </si>
+  <si>
+    <t>Just Required the Value1 for it Which will change the Banner name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Job Submission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Value Required </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Disbursement System Option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put the Value of email needs to be changed </t>
+  </si>
+  <si>
+    <t>Manage Supplier Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run GL Process </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send the Value for  need to pass the value for it </t>
+  </si>
+  <si>
+    <t>Disable Printer</t>
+  </si>
+  <si>
+    <t>Disable Notification in BPM worklist</t>
+  </si>
+  <si>
+    <t>Manage Journal Approvals</t>
+  </si>
+  <si>
+    <t>Security Console</t>
+  </si>
+  <si>
+    <t>Just Required the User Name</t>
+  </si>
+  <si>
+    <t>Manage Payment Process Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Required the One Value for it </t>
+  </si>
+  <si>
+    <t>Manage Receivables System Options</t>
+  </si>
+  <si>
+    <t>Sni</t>
+  </si>
+  <si>
     <t>fnsjfpskpkp</t>
   </si>
   <si>
-    <t>*File Name</t>
-  </si>
-  <si>
     <t>dmsmpmspdmpsmdp</t>
   </si>
   <si>
@@ -146,9 +248,6 @@
     <t>testingp2t2@gmail.com</t>
   </si>
   <si>
-    <t>Disable Printer</t>
-  </si>
-  <si>
     <t>Delete Printer In the list</t>
   </si>
   <si>
@@ -173,18 +272,15 @@
     <t>Selecting None</t>
   </si>
   <si>
-    <t>Subtask ID</t>
+    <t>CYS SOAP Test Center</t>
+  </si>
+  <si>
+    <t>*Destination URL</t>
   </si>
   <si>
     <t>testing4</t>
   </si>
   <si>
-    <t>CYS SOAP Test Center</t>
-  </si>
-  <si>
-    <t>*Destination URL</t>
-  </si>
-  <si>
     <t>HTTP Authentication User Name</t>
   </si>
   <si>
@@ -215,6 +311,9 @@
     <t>testing is goijng on of P2T automation</t>
   </si>
   <si>
+    <t>Testing are done for this -&gt;</t>
+  </si>
+  <si>
     <t>fastrack2@gmail.com</t>
   </si>
   <si>
@@ -242,30 +341,48 @@
     <t>Disable Supplier Notifications</t>
   </si>
   <si>
-    <t>Testing are done for this -&gt;</t>
-  </si>
-  <si>
     <t>Create General Ledger Cube</t>
   </si>
   <si>
     <t>*Chart of Accounts</t>
   </si>
   <si>
+    <t>Cadbury</t>
+  </si>
+  <si>
     <t>*Accounting Calendar</t>
   </si>
   <si>
+    <t>Cadbury_Cal</t>
+  </si>
+  <si>
     <t>*Starting Period</t>
   </si>
   <si>
-    <t>Cadbury</t>
-  </si>
-  <si>
-    <t>Cadbury_Cal</t>
-  </si>
-  <si>
     <t>Jan-22</t>
   </si>
   <si>
+    <t>Notification Disable in BPM Worklist</t>
+  </si>
+  <si>
+    <t>Recommit Approval Rules</t>
+  </si>
+  <si>
+    <t>DEFAULT</t>
+  </si>
+  <si>
+    <t>ANSI X12 820</t>
+  </si>
+  <si>
+    <t>BP_Training_DemoPPP</t>
+  </si>
+  <si>
+    <t>Bank Transfer Request</t>
+  </si>
+  <si>
+    <t>lkanmdlamldnalml</t>
+  </si>
+  <si>
     <t xml:space="preserve">Process ID </t>
   </si>
   <si>
@@ -275,157 +392,73 @@
     <t xml:space="preserve">Manage Tranmission Config </t>
   </si>
   <si>
+    <t>3. Manage Tranmission</t>
+  </si>
+  <si>
     <t>Administrator Profile Values ( Change Banner)</t>
   </si>
   <si>
+    <t xml:space="preserve">1. Change Banner </t>
+  </si>
+  <si>
     <t>Submission of ESS job ( 3 ess job)</t>
   </si>
   <si>
+    <t>2. ESS Job 3 Process</t>
+  </si>
+  <si>
     <t>Manage Disbursement Email ( Removing Email and Updating)</t>
   </si>
   <si>
+    <t>5. Stop Remittance Advice</t>
+  </si>
+  <si>
     <t>Disable Supplier Notification( Administeator profile Values)</t>
   </si>
   <si>
+    <t>8. Disable Supplier Notifcation</t>
+  </si>
+  <si>
     <t>Gl Process</t>
   </si>
   <si>
+    <t>7. Run GL Process</t>
+  </si>
+  <si>
     <t xml:space="preserve">Disable Printer </t>
   </si>
   <si>
+    <t>6. Disable Printer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Disable Email Notification from BPM </t>
+  </si>
+  <si>
     <t xml:space="preserve">for BPM worklist need </t>
   </si>
   <si>
-    <t>Notification Disable in BPM Worklist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Change Banner </t>
-  </si>
-  <si>
-    <t>2. ESS Job 3 Process</t>
-  </si>
-  <si>
-    <t>3. Manage Tranmission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Disable Email Notification from BPM </t>
-  </si>
-  <si>
-    <t>5. Stop Remittance Advice</t>
-  </si>
-  <si>
-    <t>6. Disable Printer</t>
-  </si>
-  <si>
-    <t>Recommit Approval Rules</t>
-  </si>
-  <si>
-    <t>7. Run GL Process</t>
-  </si>
-  <si>
     <t xml:space="preserve">Security Console </t>
   </si>
   <si>
-    <t>8. Disable Supplier Notifcation</t>
-  </si>
-  <si>
     <t xml:space="preserve">Updare ACH &amp; wire payment </t>
   </si>
   <si>
-    <t>Security Console</t>
-  </si>
-  <si>
-    <t>DEFAULT</t>
-  </si>
-  <si>
-    <t>Manage Payment Process Profile</t>
-  </si>
-  <si>
-    <t>ANSI X12 820</t>
-  </si>
-  <si>
-    <t>BP_Training_DemoPPP</t>
-  </si>
-  <si>
-    <t>Bank Transfer Request</t>
-  </si>
-  <si>
-    <t>lkanmdlamldnalml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtask ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processs Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires the Configuration Name required, Required the config In which the Column needs to be updated </t>
-  </si>
-  <si>
-    <t>Manage Administrative Profile Values</t>
-  </si>
-  <si>
-    <t>Just Required the Value1 for it Which will change the Banner name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Job Submission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Disbursement System Option </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Put the Value of email needs to be changed </t>
-  </si>
-  <si>
-    <t>Manage Supplier Notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run GL Process </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send the Value for  need to pass the value for it </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Value Required </t>
-  </si>
-  <si>
-    <t>Disable Notification in BPM worklist</t>
-  </si>
-  <si>
-    <t>Manage Journal Approvals</t>
-  </si>
-  <si>
-    <t>Just Required the User Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just Required the One Value for it </t>
-  </si>
-  <si>
-    <t>Manage Receivables System Options</t>
+    <t>ESS Job Submission</t>
+  </si>
+  <si>
+    <t>Manage Disbursement System Option</t>
   </si>
   <si>
     <t>Achyut.Kumar@us.gt.com</t>
   </si>
   <si>
-    <t>Sni</t>
+    <t>Run GL Process</t>
   </si>
   <si>
     <t>Australia Business Unit</t>
   </si>
   <si>
     <t>Belgium Business Unit</t>
-  </si>
-  <si>
-    <t>ESS Job Submission</t>
-  </si>
-  <si>
-    <t>Manage Disbursement System Option</t>
-  </si>
-  <si>
-    <t>Run GL Process</t>
   </si>
   <si>
     <t>JOKJSLFDLS</t>
@@ -435,7 +468,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,18 +554,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -820,6 +850,14 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C2" dT="2024-11-05T09:49:33.86" personId="{02FCD4F6-DFE5-4012-9EE3-08A3D4226794}" id="{DD2F0BCC-6225-4032-90C6-62D8618D1CF4}">
+    <text>ABC</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C33" dT="2024-11-05T09:49:33.86" personId="{02FCD4F6-DFE5-4012-9EE3-08A3D4226794}" id="{EA1501C2-1D37-47CC-8001-3A6BD7DFB7A9}">
     <text>ABC</text>
   </threadedComment>
@@ -827,17 +865,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
-    <col min="2" max="2" width="36" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="45.42578125" bestFit="1" customWidth="1"/>
@@ -849,77 +887,103 @@
     <col min="11" max="11" width="7.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C4" t="s">
-        <v>96</v>
-      </c>
+      <c r="K1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1">
+        <v>101</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -931,159 +995,159 @@
       <selection activeCell="B9" sqref="B9:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="97.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="1">
         <v>101</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4">
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5">
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6">
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7">
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8">
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9">
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10">
         <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11">
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12">
         <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
       <c r="B13">
         <v>111</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>93</v>
+      <c r="C13" t="s">
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
       <c r="B14">
         <v>112</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>115</v>
+      <c r="C14" t="s">
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1095,11 +1159,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9868C259-FF60-4EA9-9DDA-810F97FA19C4}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD44"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
@@ -1111,48 +1175,48 @@
     <col min="8" max="8" width="43.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1">
         <v>101</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
@@ -1160,40 +1224,40 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1204,40 +1268,40 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1248,352 +1312,346 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>101</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>101</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="26" spans="1:11">
+      <c r="A26">
         <v>102</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1"/>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>101</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>101</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
+    <row r="35" spans="1:11">
+      <c r="A35">
         <v>102</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
         <v>105</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>106</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>68</v>
+        <v>93</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1604,137 +1662,128 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
         <v>102</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="C59" t="s">
+        <v>48</v>
+      </c>
+      <c r="D59" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+      <c r="F59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
         <v>105</v>
       </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>106</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3" t="s">
-        <v>36</v>
+      <c r="C61" t="s">
+        <v>63</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J61" s="6" t="s">
-        <v>68</v>
+        <v>93</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>107</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>108</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>109</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65">
         <v>110</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>91</v>
+      <c r="C65" t="s">
+        <v>40</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1745,22 +1794,22 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66">
         <v>111</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67">
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68">
         <v>111</v>
       </c>
       <c r="F68" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1779,143 +1828,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDCFF5-2C46-4D2E-ABB2-9326953A48F0}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A44" sqref="A44:B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13">
       <c r="B2">
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13">
       <c r="B3">
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13">
       <c r="B4">
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
       <c r="B5">
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="I5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13">
       <c r="B6">
         <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
       <c r="B7">
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
       <c r="B8">
         <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
       <c r="B9">
         <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="I9" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="M9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
       <c r="B10">
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="I17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="I18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1927,24 +1976,24 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>116</v>
+        <v>53</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>116</v>
+        <v>55</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1952,12 +2001,12 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1969,43 +2018,43 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>68</v>
+        <v>93</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2017,12 +2066,12 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2034,12 +2083,12 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2051,15 +2100,15 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2070,15 +2119,15 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2089,15 +2138,15 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2108,15 +2157,15 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2127,15 +2176,15 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>112</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>115</v>
+      <c r="B34" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2146,15 +2195,15 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>112</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>115</v>
+      <c r="B35" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2165,21 +2214,21 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2188,12 +2237,12 @@
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
       <c r="A40" s="1">
         <v>103</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2205,24 +2254,24 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="1">
         <v>104</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>116</v>
+        <v>53</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>116</v>
+        <v>55</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2230,12 +2279,12 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
       <c r="A42" s="1">
         <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>107</v>
+        <v>34</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2247,43 +2296,43 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
       <c r="A43" s="1">
         <v>106</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>68</v>
+        <v>93</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
       <c r="A44" s="1">
         <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2295,12 +2344,12 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
       <c r="A45" s="1">
         <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2312,12 +2361,12 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
       <c r="A46" s="1">
         <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>112</v>
+        <v>39</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2329,15 +2378,15 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="1">
         <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2348,15 +2397,15 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
       <c r="A48" s="1">
         <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2367,15 +2416,15 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="1">
         <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2386,15 +2435,15 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="1">
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2405,15 +2454,15 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="1">
         <v>112</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>115</v>
+      <c r="B51" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2424,15 +2473,15 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="1">
         <v>112</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>115</v>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
@@ -2452,4 +2501,175 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5422AC91CF8E947A984DCE6015D273C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f32ea5a1cd566b128aa76ed9b4b5df4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb5a1ccf-a65f-4902-b56f-6f19daef6027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74d29ba8d220cbabd832619bca9f6aa8" ns2:_="">
+    <xsd:import namespace="fb5a1ccf-a65f-4902-b56f-6f19daef6027"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb5a1ccf-a65f-4902-b56f-6f19daef6027" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DA43252-5667-4C8C-9731-F5D0DBAA4343}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22E01A-42DF-4875-95E2-B6A285A4A10C}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C0585C-39C8-4B7B-A1B2-2BF31602D89B}"/>
 </file>
--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{FAD1E3E0-D7F4-4645-BFB4-923D303F7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8F5C115-502F-4C32-A5E1-2E9A2CAA20A3}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{FAD1E3E0-D7F4-4645-BFB4-923D303F7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6267069B-BE10-4459-921C-78272975619D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,19 +119,19 @@
     <t>File Directory</t>
   </si>
   <si>
-    <t>snflsnlfnslnslnl</t>
+    <t>jknfjksnfksnfkjn</t>
   </si>
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>nskofnsknsokfnskonm</t>
+    <t>obsjodfnslfnsjn</t>
   </si>
   <si>
     <t>Append To File (Y/N)</t>
   </si>
   <si>
-    <t>fklsnklsndlksn</t>
+    <t>ndsondklndoksn</t>
   </si>
   <si>
     <t>SDD - Acknowledgement</t>
@@ -140,13 +140,13 @@
     <t>*Account Name</t>
   </si>
   <si>
-    <t>oshfosfonsofno</t>
+    <t>nfjnsfnsn</t>
   </si>
   <si>
     <t>*File Name</t>
   </si>
   <si>
-    <t>okdoksndonso</t>
+    <t>kopadpkapdap</t>
   </si>
   <si>
     <t xml:space="preserve">Subtask ID </t>
@@ -869,7 +869,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2510,6 +2510,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5422AC91CF8E947A984DCE6015D273C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f32ea5a1cd566b128aa76ed9b4b5df4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb5a1ccf-a65f-4902-b56f-6f19daef6027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74d29ba8d220cbabd832619bca9f6aa8" ns2:_="">
     <xsd:import namespace="fb5a1ccf-a65f-4902-b56f-6f19daef6027"/>
@@ -2653,23 +2662,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DA43252-5667-4C8C-9731-F5D0DBAA4343}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22E01A-42DF-4875-95E2-B6A285A4A10C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C0585C-39C8-4B7B-A1B2-2BF31602D89B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C0585C-39C8-4B7B-A1B2-2BF31602D89B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22E01A-42DF-4875-95E2-B6A285A4A10C}"/>
 </file>
--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{FAD1E3E0-D7F4-4645-BFB4-923D303F7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6267069B-BE10-4459-921C-78272975619D}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{FAD1E3E0-D7F4-4645-BFB4-923D303F7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DDADE03-B56F-4E7B-AA81-79A5F917DED5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,24 +41,6 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={DD2F0BCC-6225-4032-90C6-62D8618D1CF4}</author>
-  </authors>
-  <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{DD2F0BCC-6225-4032-90C6-62D8618D1CF4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ABC</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
     <author>tc={EA1501C2-1D37-47CC-8001-3A6BD7DFB7A9}</author>
   </authors>
   <commentList>
@@ -75,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="124">
   <si>
     <t>Subtask ID</t>
   </si>
@@ -113,196 +95,181 @@
     <t>Manage Transmission Configurations</t>
   </si>
   <si>
+    <t>CYS SOAP Test Center</t>
+  </si>
+  <si>
+    <t>*Destination URL</t>
+  </si>
+  <si>
+    <t>testing4</t>
+  </si>
+  <si>
+    <t>HTTP Authentication User Name</t>
+  </si>
+  <si>
+    <t>Hello2</t>
+  </si>
+  <si>
+    <t>HTTP Authentication Password</t>
+  </si>
+  <si>
+    <t>testing32</t>
+  </si>
+  <si>
+    <t>Proxy Host</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtask ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processs Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires the Configuration Name required, Required the config In which the Column needs to be updated </t>
+  </si>
+  <si>
+    <t>Manage Administrative Profile Values</t>
+  </si>
+  <si>
+    <t>Just Required the Value1 for it Which will change the Banner name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Job Submission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Value Required </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Disbursement System Option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put the Value of email needs to be changed </t>
+  </si>
+  <si>
+    <t>Manage Supplier Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run GL Process </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send the Value for  need to pass the value for it </t>
+  </si>
+  <si>
+    <t>Disable Printer</t>
+  </si>
+  <si>
+    <t>Disable Notification in BPM worklist</t>
+  </si>
+  <si>
+    <t>Manage Journal Approvals</t>
+  </si>
+  <si>
+    <t>Security Console</t>
+  </si>
+  <si>
+    <t>Just Required the User Name</t>
+  </si>
+  <si>
+    <t>Manage Payment Process Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Required the One Value for it </t>
+  </si>
+  <si>
+    <t>Manage Receivables System Options</t>
+  </si>
+  <si>
+    <t>Sni</t>
+  </si>
+  <si>
+    <t>SDD - Acknowledgement</t>
+  </si>
+  <si>
+    <t>*Account Name</t>
+  </si>
+  <si>
+    <t>fnsjfpskpkp</t>
+  </si>
+  <si>
+    <t>*File Name</t>
+  </si>
+  <si>
+    <t>dmsmpmspdmpsmdp</t>
+  </si>
+  <si>
+    <t>Manage Administrator Profile Values</t>
+  </si>
+  <si>
+    <t>Profile Display Name</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>P2T automation is working don’t change anything</t>
+  </si>
+  <si>
+    <t>Manage Disbursement System Options</t>
+  </si>
+  <si>
+    <t>Separate Remittance Advice from Email</t>
+  </si>
+  <si>
+    <t>testingp2t@gmail.com</t>
+  </si>
+  <si>
+    <t>Separate Remittance Advice Subject</t>
+  </si>
+  <si>
+    <t>testingp2t2@gmail.com</t>
+  </si>
+  <si>
+    <t>Delete Printer In the list</t>
+  </si>
+  <si>
+    <t>ESS Jobs</t>
+  </si>
+  <si>
+    <t>Running ESS Jobs</t>
+  </si>
+  <si>
+    <t>Retrieve Latest LDAP Changes</t>
+  </si>
+  <si>
+    <t>Send Pending LDAP Requests</t>
+  </si>
+  <si>
+    <t>Import User and Role Application Security Data</t>
+  </si>
+  <si>
+    <t>GL Process</t>
+  </si>
+  <si>
+    <t>Selecting None</t>
+  </si>
+  <si>
     <t>Bills Receivable Config</t>
   </si>
   <si>
     <t>File Directory</t>
   </si>
   <si>
-    <t>jknfjksnfksnfkjn</t>
+    <t>test1</t>
   </si>
   <si>
     <t>File Name</t>
   </si>
   <si>
-    <t>obsjodfnslfnsjn</t>
+    <t>test2</t>
   </si>
   <si>
     <t>Append To File (Y/N)</t>
-  </si>
-  <si>
-    <t>ndsondklndoksn</t>
-  </si>
-  <si>
-    <t>SDD - Acknowledgement</t>
-  </si>
-  <si>
-    <t>*Account Name</t>
-  </si>
-  <si>
-    <t>nfjnsfnsn</t>
-  </si>
-  <si>
-    <t>*File Name</t>
-  </si>
-  <si>
-    <t>kopadpkapdap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtask ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processs Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires the Configuration Name required, Required the config In which the Column needs to be updated </t>
-  </si>
-  <si>
-    <t>Manage Administrative Profile Values</t>
-  </si>
-  <si>
-    <t>Just Required the Value1 for it Which will change the Banner name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Job Submission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Value Required </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Disbursement System Option </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Put the Value of email needs to be changed </t>
-  </si>
-  <si>
-    <t>Manage Supplier Notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run GL Process </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send the Value for  need to pass the value for it </t>
-  </si>
-  <si>
-    <t>Disable Printer</t>
-  </si>
-  <si>
-    <t>Disable Notification in BPM worklist</t>
-  </si>
-  <si>
-    <t>Manage Journal Approvals</t>
-  </si>
-  <si>
-    <t>Security Console</t>
-  </si>
-  <si>
-    <t>Just Required the User Name</t>
-  </si>
-  <si>
-    <t>Manage Payment Process Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just Required the One Value for it </t>
-  </si>
-  <si>
-    <t>Manage Receivables System Options</t>
-  </si>
-  <si>
-    <t>Sni</t>
-  </si>
-  <si>
-    <t>fnsjfpskpkp</t>
-  </si>
-  <si>
-    <t>dmsmpmspdmpsmdp</t>
-  </si>
-  <si>
-    <t>Manage Administrator Profile Values</t>
-  </si>
-  <si>
-    <t>Profile Display Name</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>P2T automation is working don’t change anything</t>
-  </si>
-  <si>
-    <t>Manage Disbursement System Options</t>
-  </si>
-  <si>
-    <t>Separate Remittance Advice from Email</t>
-  </si>
-  <si>
-    <t>testingp2t@gmail.com</t>
-  </si>
-  <si>
-    <t>Separate Remittance Advice Subject</t>
-  </si>
-  <si>
-    <t>testingp2t2@gmail.com</t>
-  </si>
-  <si>
-    <t>Delete Printer In the list</t>
-  </si>
-  <si>
-    <t>ESS Jobs</t>
-  </si>
-  <si>
-    <t>Running ESS Jobs</t>
-  </si>
-  <si>
-    <t>Retrieve Latest LDAP Changes</t>
-  </si>
-  <si>
-    <t>Send Pending LDAP Requests</t>
-  </si>
-  <si>
-    <t>Import User and Role Application Security Data</t>
-  </si>
-  <si>
-    <t>GL Process</t>
-  </si>
-  <si>
-    <t>Selecting None</t>
-  </si>
-  <si>
-    <t>CYS SOAP Test Center</t>
-  </si>
-  <si>
-    <t>*Destination URL</t>
-  </si>
-  <si>
-    <t>testing4</t>
-  </si>
-  <si>
-    <t>HTTP Authentication User Name</t>
-  </si>
-  <si>
-    <t>Hello2</t>
-  </si>
-  <si>
-    <t>HTTP Authentication Password</t>
-  </si>
-  <si>
-    <t>testing32</t>
-  </si>
-  <si>
-    <t>Proxy Host</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
   </si>
   <si>
     <t>test3</t>
@@ -850,14 +817,6 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C2" dT="2024-11-05T09:49:33.86" personId="{02FCD4F6-DFE5-4012-9EE3-08A3D4226794}" id="{DD2F0BCC-6225-4032-90C6-62D8618D1CF4}">
-    <text>ABC</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="C33" dT="2024-11-05T09:49:33.86" personId="{02FCD4F6-DFE5-4012-9EE3-08A3D4226794}" id="{EA1501C2-1D37-47CC-8001-3A6BD7DFB7A9}">
     <text>ABC</text>
   </threadedComment>
@@ -865,11 +824,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -950,40 +909,16 @@
       <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1">
-        <v>101</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -992,7 +927,7 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C10"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1004,13 +939,13 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -1021,7 +956,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -1029,10 +964,10 @@
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -1040,10 +975,10 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -1051,10 +986,10 @@
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -1062,10 +997,10 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1073,10 +1008,10 @@
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1084,10 +1019,10 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1095,10 +1030,10 @@
         <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1106,10 +1041,10 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1117,10 +1052,10 @@
         <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1128,10 +1063,10 @@
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -1139,15 +1074,15 @@
         <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1159,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9868C259-FF60-4EA9-9DDA-810F97FA19C4}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1183,16 +1118,16 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>47</v>
@@ -1254,7 +1189,7 @@
         <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>57</v>
@@ -1320,31 +1255,31 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1355,16 +1290,16 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>47</v>
@@ -1382,25 +1317,25 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1413,16 +1348,16 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>47</v>
@@ -1446,7 +1381,7 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1476,7 +1411,7 @@
     </row>
     <row r="30" spans="1:11">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="3" customFormat="1"/>
@@ -1492,13 +1427,13 @@
         <v>53</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>55</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -1513,25 +1448,25 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
@@ -1544,19 +1479,19 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1577,7 +1512,7 @@
         <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1585,7 +1520,7 @@
         <v>105</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1596,25 +1531,25 @@
         <v>63</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="I37" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
@@ -1624,7 +1559,7 @@
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1632,7 +1567,7 @@
         <v>108</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1640,7 +1575,7 @@
         <v>109</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1648,10 +1583,10 @@
         <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -1667,10 +1602,10 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1678,10 +1613,10 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1689,10 +1624,10 @@
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -1709,7 +1644,7 @@
         <v>50</v>
       </c>
       <c r="F59" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -1717,7 +1652,7 @@
         <v>105</v>
       </c>
       <c r="C60" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -1728,25 +1663,25 @@
         <v>63</v>
       </c>
       <c r="D61" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I61" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="J61" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="J61" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -1756,7 +1691,7 @@
         <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -1764,7 +1699,7 @@
         <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -1772,7 +1707,7 @@
         <v>109</v>
       </c>
       <c r="C64" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -1780,10 +1715,10 @@
         <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -1809,7 +1744,7 @@
         <v>111</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1764,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B44"/>
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1841,10 +1776,10 @@
   <sheetData>
     <row r="1" spans="2:13">
       <c r="B1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="2:13">
@@ -1852,10 +1787,10 @@
         <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="2:13">
@@ -1863,10 +1798,10 @@
         <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -1874,10 +1809,10 @@
         <v>103</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="2:13">
@@ -1885,10 +1820,10 @@
         <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="I5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="2:13">
@@ -1896,10 +1831,10 @@
         <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:13">
@@ -1907,10 +1842,10 @@
         <v>106</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="2:13">
@@ -1918,10 +1853,10 @@
         <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:13">
@@ -1929,13 +1864,13 @@
         <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -1943,20 +1878,20 @@
         <v>109</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="I17" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="I18" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1964,7 +1899,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1981,19 +1916,19 @@
         <v>104</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -2006,7 +1941,7 @@
         <v>105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2023,28 +1958,28 @@
         <v>106</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="I26" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2054,7 +1989,7 @@
         <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2071,7 +2006,7 @@
         <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2088,7 +2023,7 @@
         <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2105,10 +2040,10 @@
         <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -2124,10 +2059,10 @@
         <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2143,10 +2078,10 @@
         <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2162,10 +2097,10 @@
         <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2181,10 +2116,10 @@
         <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -2200,10 +2135,10 @@
         <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2219,7 +2154,7 @@
         <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>49</v>
@@ -2228,7 +2163,7 @@
         <v>50</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2242,7 +2177,7 @@
         <v>103</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -2259,19 +2194,19 @@
         <v>104</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -2284,7 +2219,7 @@
         <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2301,28 +2236,28 @@
         <v>106</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="I43" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
@@ -2332,7 +2267,7 @@
         <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2349,7 +2284,7 @@
         <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2366,7 +2301,7 @@
         <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2383,10 +2318,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
@@ -2402,10 +2337,10 @@
         <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
@@ -2421,10 +2356,10 @@
         <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -2440,10 +2375,10 @@
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -2459,10 +2394,10 @@
         <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
@@ -2478,10 +2413,10 @@
         <v>112</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>

--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{FAD1E3E0-D7F4-4645-BFB4-923D303F7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0DDADE03-B56F-4E7B-AA81-79A5F917DED5}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{FAD1E3E0-D7F4-4645-BFB4-923D303F7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A25C7CE-1225-4E00-B5A7-3A56C3D86BA5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
   <si>
     <t>Subtask ID</t>
   </si>
@@ -95,6 +95,138 @@
     <t>Manage Transmission Configurations</t>
   </si>
   <si>
+    <t>SDD - Acknowledgement</t>
+  </si>
+  <si>
+    <t>*Account Name</t>
+  </si>
+  <si>
+    <t>fnsjfpskpkp</t>
+  </si>
+  <si>
+    <t>*File Name</t>
+  </si>
+  <si>
+    <t>dmsmpmspdmpsmdp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtask ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processs Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires the Configuration Name required, Required the config In which the Column needs to be updated </t>
+  </si>
+  <si>
+    <t>Manage Administrative Profile Values</t>
+  </si>
+  <si>
+    <t>Just Required the Value1 for it Which will change the Banner name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Job Submission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Value Required </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Disbursement System Option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put the Value of email needs to be changed </t>
+  </si>
+  <si>
+    <t>Manage Supplier Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run GL Process </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send the Value for  need to pass the value for it </t>
+  </si>
+  <si>
+    <t>Disable Printer</t>
+  </si>
+  <si>
+    <t>Disable Notification in BPM worklist</t>
+  </si>
+  <si>
+    <t>Manage Journal Approvals</t>
+  </si>
+  <si>
+    <t>Security Console</t>
+  </si>
+  <si>
+    <t>Just Required the User Name</t>
+  </si>
+  <si>
+    <t>Manage Payment Process Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Required the One Value for it </t>
+  </si>
+  <si>
+    <t>Manage Receivables System Options</t>
+  </si>
+  <si>
+    <t>Sni</t>
+  </si>
+  <si>
+    <t>Manage Administrator Profile Values</t>
+  </si>
+  <si>
+    <t>Profile Display Name</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>P2T automation is working don’t change anything</t>
+  </si>
+  <si>
+    <t>Manage Disbursement System Options</t>
+  </si>
+  <si>
+    <t>Separate Remittance Advice from Email</t>
+  </si>
+  <si>
+    <t>testingp2t@gmail.com</t>
+  </si>
+  <si>
+    <t>Separate Remittance Advice Subject</t>
+  </si>
+  <si>
+    <t>testingp2t2@gmail.com</t>
+  </si>
+  <si>
+    <t>Delete Printer In the list</t>
+  </si>
+  <si>
+    <t>ESS Jobs</t>
+  </si>
+  <si>
+    <t>Running ESS Jobs</t>
+  </si>
+  <si>
+    <t>Retrieve Latest LDAP Changes</t>
+  </si>
+  <si>
+    <t>Send Pending LDAP Requests</t>
+  </si>
+  <si>
+    <t>Import User and Role Application Security Data</t>
+  </si>
+  <si>
+    <t>GL Process</t>
+  </si>
+  <si>
+    <t>Selecting None</t>
+  </si>
+  <si>
     <t>CYS SOAP Test Center</t>
   </si>
   <si>
@@ -120,138 +252,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subtask ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processs Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires the Configuration Name required, Required the config In which the Column needs to be updated </t>
-  </si>
-  <si>
-    <t>Manage Administrative Profile Values</t>
-  </si>
-  <si>
-    <t>Just Required the Value1 for it Which will change the Banner name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Job Submission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Value Required </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Disbursement System Option </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Put the Value of email needs to be changed </t>
-  </si>
-  <si>
-    <t>Manage Supplier Notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run GL Process </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send the Value for  need to pass the value for it </t>
-  </si>
-  <si>
-    <t>Disable Printer</t>
-  </si>
-  <si>
-    <t>Disable Notification in BPM worklist</t>
-  </si>
-  <si>
-    <t>Manage Journal Approvals</t>
-  </si>
-  <si>
-    <t>Security Console</t>
-  </si>
-  <si>
-    <t>Just Required the User Name</t>
-  </si>
-  <si>
-    <t>Manage Payment Process Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just Required the One Value for it </t>
-  </si>
-  <si>
-    <t>Manage Receivables System Options</t>
-  </si>
-  <si>
-    <t>Sni</t>
-  </si>
-  <si>
-    <t>SDD - Acknowledgement</t>
-  </si>
-  <si>
-    <t>*Account Name</t>
-  </si>
-  <si>
-    <t>fnsjfpskpkp</t>
-  </si>
-  <si>
-    <t>*File Name</t>
-  </si>
-  <si>
-    <t>dmsmpmspdmpsmdp</t>
-  </si>
-  <si>
-    <t>Manage Administrator Profile Values</t>
-  </si>
-  <si>
-    <t>Profile Display Name</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>P2T automation is working don’t change anything</t>
-  </si>
-  <si>
-    <t>Manage Disbursement System Options</t>
-  </si>
-  <si>
-    <t>Separate Remittance Advice from Email</t>
-  </si>
-  <si>
-    <t>testingp2t@gmail.com</t>
-  </si>
-  <si>
-    <t>Separate Remittance Advice Subject</t>
-  </si>
-  <si>
-    <t>testingp2t2@gmail.com</t>
-  </si>
-  <si>
-    <t>Delete Printer In the list</t>
-  </si>
-  <si>
-    <t>ESS Jobs</t>
-  </si>
-  <si>
-    <t>Running ESS Jobs</t>
-  </si>
-  <si>
-    <t>Retrieve Latest LDAP Changes</t>
-  </si>
-  <si>
-    <t>Send Pending LDAP Requests</t>
-  </si>
-  <si>
-    <t>Import User and Role Application Security Data</t>
-  </si>
-  <si>
-    <t>GL Process</t>
-  </si>
-  <si>
-    <t>Selecting None</t>
   </si>
   <si>
     <t>Bills Receivable Config</t>
@@ -828,7 +828,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -903,18 +903,10 @@
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -939,13 +931,13 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -956,7 +948,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -964,10 +956,10 @@
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -975,10 +967,10 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -986,10 +978,10 @@
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -997,10 +989,10 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1008,10 +1000,10 @@
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1019,10 +1011,10 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1030,10 +1022,10 @@
         <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1041,10 +1033,10 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1052,10 +1044,10 @@
         <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1063,10 +1055,10 @@
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -1074,15 +1066,15 @@
         <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1095,7 +1087,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1118,19 +1110,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1142,16 +1134,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
@@ -1164,20 +1156,20 @@
         <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1189,10 +1181,10 @@
         <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1208,21 +1200,21 @@
         <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1233,10 +1225,10 @@
         <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1255,31 +1247,31 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1290,19 +1282,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1348,19 +1340,19 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1372,13 +1364,13 @@
         <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
@@ -1389,21 +1381,21 @@
         <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1420,17 +1412,17 @@
         <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>75</v>
@@ -1479,16 +1471,16 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>80</v>
@@ -1503,13 +1495,13 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
         <v>81</v>
@@ -1528,7 +1520,7 @@
         <v>106</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>83</v>
@@ -1559,7 +1551,7 @@
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1583,7 +1575,7 @@
         <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>92</v>
@@ -1602,7 +1594,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
         <v>93</v>
@@ -1613,7 +1605,7 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
         <v>94</v>
@@ -1624,7 +1616,7 @@
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C44" t="s">
         <v>95</v>
@@ -1635,13 +1627,13 @@
         <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
         <v>81</v>
@@ -1660,7 +1652,7 @@
         <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>83</v>
@@ -1691,7 +1683,7 @@
         <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -1715,7 +1707,7 @@
         <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>92</v>
@@ -1919,13 +1911,13 @@
         <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>119</v>
@@ -1941,7 +1933,7 @@
         <v>105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1989,7 +1981,7 @@
         <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -2006,7 +1998,7 @@
         <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2023,7 +2015,7 @@
         <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2040,7 +2032,7 @@
         <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>92</v>
@@ -2059,7 +2051,7 @@
         <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>93</v>
@@ -2078,7 +2070,7 @@
         <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>94</v>
@@ -2097,7 +2089,7 @@
         <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>95</v>
@@ -2116,7 +2108,7 @@
         <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>121</v>
@@ -2135,7 +2127,7 @@
         <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>122</v>
@@ -2154,13 +2146,13 @@
         <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>123</v>
@@ -2197,13 +2189,13 @@
         <v>118</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>119</v>
@@ -2219,7 +2211,7 @@
         <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2267,7 +2259,7 @@
         <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2284,7 +2276,7 @@
         <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2301,7 +2293,7 @@
         <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2318,7 +2310,7 @@
         <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>92</v>
@@ -2337,7 +2329,7 @@
         <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>93</v>
@@ -2356,7 +2348,7 @@
         <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>94</v>
@@ -2375,7 +2367,7 @@
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>95</v>
@@ -2394,7 +2386,7 @@
         <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>121</v>
@@ -2413,7 +2405,7 @@
         <v>112</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>122</v>
@@ -2445,15 +2437,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5422AC91CF8E947A984DCE6015D273C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f32ea5a1cd566b128aa76ed9b4b5df4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb5a1ccf-a65f-4902-b56f-6f19daef6027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74d29ba8d220cbabd832619bca9f6aa8" ns2:_="">
     <xsd:import namespace="fb5a1ccf-a65f-4902-b56f-6f19daef6027"/>
@@ -2597,14 +2580,23 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DA43252-5667-4C8C-9731-F5D0DBAA4343}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C0585C-39C8-4B7B-A1B2-2BF31602D89B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22E01A-42DF-4875-95E2-B6A285A4A10C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22E01A-42DF-4875-95E2-B6A285A4A10C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C0585C-39C8-4B7B-A1B2-2BF31602D89B}"/>
 </file>
--- a/Input/input_data.xlsx
+++ b/Input/input_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\US81896\PycharmProjects\pythonProject1\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{FAD1E3E0-D7F4-4645-BFB4-923D303F7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A25C7CE-1225-4E00-B5A7-3A56C3D86BA5}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="13_ncr:1_{FAD1E3E0-D7F4-4645-BFB4-923D303F7E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4074B8B6-6518-471E-AA3E-01413C428173}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
   <si>
     <t>Subtask ID</t>
   </si>
@@ -95,6 +95,93 @@
     <t>Manage Transmission Configurations</t>
   </si>
   <si>
+    <t>Bills Receivable Config</t>
+  </si>
+  <si>
+    <t>File Directory</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>Append To File (Y/N)</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtask ID </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processs Name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requires the Configuration Name required, Required the config In which the Column needs to be updated </t>
+  </si>
+  <si>
+    <t>Manage Administrative Profile Values</t>
+  </si>
+  <si>
+    <t>Just Required the Value1 for it Which will change the Banner name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESS Job Submission </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Value Required </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manage Disbursement System Option </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Put the Value of email needs to be changed </t>
+  </si>
+  <si>
+    <t>Manage Supplier Notification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run GL Process </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Send the Value for  need to pass the value for it </t>
+  </si>
+  <si>
+    <t>Disable Printer</t>
+  </si>
+  <si>
+    <t>Disable Notification in BPM worklist</t>
+  </si>
+  <si>
+    <t>Manage Journal Approvals</t>
+  </si>
+  <si>
+    <t>Security Console</t>
+  </si>
+  <si>
+    <t>Just Required the User Name</t>
+  </si>
+  <si>
+    <t>Manage Payment Process Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Required the One Value for it </t>
+  </si>
+  <si>
+    <t>Manage Receivables System Options</t>
+  </si>
+  <si>
+    <t>Sni</t>
+  </si>
+  <si>
     <t>SDD - Acknowledgement</t>
   </si>
   <si>
@@ -110,72 +197,6 @@
     <t>dmsmpmspdmpsmdp</t>
   </si>
   <si>
-    <t xml:space="preserve">Subtask ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Processs Name </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comment </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Requires the Configuration Name required, Required the config In which the Column needs to be updated </t>
-  </si>
-  <si>
-    <t>Manage Administrative Profile Values</t>
-  </si>
-  <si>
-    <t>Just Required the Value1 for it Which will change the Banner name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ESS Job Submission </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Value Required </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manage Disbursement System Option </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Put the Value of email needs to be changed </t>
-  </si>
-  <si>
-    <t>Manage Supplier Notification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Run GL Process </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Send the Value for  need to pass the value for it </t>
-  </si>
-  <si>
-    <t>Disable Printer</t>
-  </si>
-  <si>
-    <t>Disable Notification in BPM worklist</t>
-  </si>
-  <si>
-    <t>Manage Journal Approvals</t>
-  </si>
-  <si>
-    <t>Security Console</t>
-  </si>
-  <si>
-    <t>Just Required the User Name</t>
-  </si>
-  <si>
-    <t>Manage Payment Process Profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Just Required the One Value for it </t>
-  </si>
-  <si>
-    <t>Manage Receivables System Options</t>
-  </si>
-  <si>
-    <t>Sni</t>
-  </si>
-  <si>
     <t>Manage Administrator Profile Values</t>
   </si>
   <si>
@@ -252,27 +273,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>Bills Receivable Config</t>
-  </si>
-  <si>
-    <t>File Directory</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>Append To File (Y/N)</t>
-  </si>
-  <si>
-    <t>test3</t>
   </si>
   <si>
     <t>testing is goijng on of P2T automation</t>
@@ -828,7 +828,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -903,8 +903,12 @@
       <c r="G2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
     </row>
@@ -919,7 +923,7 @@
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C5"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -931,13 +935,13 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="2:4">
@@ -948,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="2:4">
@@ -956,10 +960,10 @@
         <v>102</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4">
@@ -967,10 +971,10 @@
         <v>103</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:4">
@@ -978,10 +982,10 @@
         <v>104</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="2:4">
@@ -989,10 +993,10 @@
         <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:4">
@@ -1000,10 +1004,10 @@
         <v>106</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1011,10 +1015,10 @@
         <v>107</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="2:4">
@@ -1022,10 +1026,10 @@
         <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:4">
@@ -1033,10 +1037,10 @@
         <v>109</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:4">
@@ -1044,10 +1048,10 @@
         <v>110</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:4">
@@ -1055,10 +1059,10 @@
         <v>111</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="2:4">
@@ -1066,15 +1070,15 @@
         <v>112</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1086,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9868C259-FF60-4EA9-9DDA-810F97FA19C4}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1110,19 +1114,19 @@
         <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -1134,16 +1138,16 @@
         <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="F2" s="1"/>
       <c r="H2" s="1"/>
@@ -1156,20 +1160,20 @@
         <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -1181,10 +1185,10 @@
         <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1200,21 +1204,21 @@
         <v>105</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1225,10 +1229,10 @@
         <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -1247,31 +1251,31 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1282,19 +1286,19 @@
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1309,25 +1313,25 @@
         <v>11</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -1340,19 +1344,19 @@
         <v>11</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1364,13 +1368,13 @@
         <v>102</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E26" t="s">
         <v>72</v>
@@ -1381,21 +1385,21 @@
         <v>103</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1412,17 +1416,17 @@
         <v>104</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>75</v>
@@ -1440,22 +1444,22 @@
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>76</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>77</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>78</v>
@@ -1471,16 +1475,16 @@
         <v>11</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>80</v>
@@ -1495,13 +1499,13 @@
         <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E35" t="s">
         <v>81</v>
@@ -1520,7 +1524,7 @@
         <v>106</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>83</v>
@@ -1551,7 +1555,7 @@
         <v>107</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1575,7 +1579,7 @@
         <v>110</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>92</v>
@@ -1594,7 +1598,7 @@
         <v>111</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
         <v>93</v>
@@ -1605,7 +1609,7 @@
         <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>94</v>
@@ -1616,7 +1620,7 @@
         <v>111</v>
       </c>
       <c r="B44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
         <v>95</v>
@@ -1627,13 +1631,13 @@
         <v>102</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F59" t="s">
         <v>81</v>
@@ -1652,7 +1656,7 @@
         <v>106</v>
       </c>
       <c r="C61" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>83</v>
@@ -1683,7 +1687,7 @@
         <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -1707,7 +1711,7 @@
         <v>110</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>92</v>
@@ -1911,13 +1915,13 @@
         <v>118</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>119</v>
@@ -1933,7 +1937,7 @@
         <v>105</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1981,7 +1985,7 @@
         <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1998,7 +2002,7 @@
         <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -2015,7 +2019,7 @@
         <v>109</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -2032,7 +2036,7 @@
         <v>110</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>92</v>
@@ -2051,7 +2055,7 @@
         <v>111</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>93</v>
@@ -2070,7 +2074,7 @@
         <v>111</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>94</v>
@@ -2089,7 +2093,7 @@
         <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>95</v>
@@ -2108,7 +2112,7 @@
         <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>121</v>
@@ -2127,7 +2131,7 @@
         <v>112</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>122</v>
@@ -2146,13 +2150,13 @@
         <v>102</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>123</v>
@@ -2189,13 +2193,13 @@
         <v>118</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>119</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>119</v>
@@ -2211,7 +2215,7 @@
         <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -2259,7 +2263,7 @@
         <v>107</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -2276,7 +2280,7 @@
         <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -2293,7 +2297,7 @@
         <v>109</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -2310,7 +2314,7 @@
         <v>110</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>92</v>
@@ -2329,7 +2333,7 @@
         <v>111</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>93</v>
@@ -2348,7 +2352,7 @@
         <v>111</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>94</v>
@@ -2367,7 +2371,7 @@
         <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>95</v>
@@ -2386,7 +2390,7 @@
         <v>112</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>121</v>
@@ -2405,7 +2409,7 @@
         <v>112</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>122</v>
@@ -2431,12 +2435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C5422AC91CF8E947A984DCE6015D273C" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9f32ea5a1cd566b128aa76ed9b4b5df4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fb5a1ccf-a65f-4902-b56f-6f19daef6027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74d29ba8d220cbabd832619bca9f6aa8" ns2:_="">
     <xsd:import namespace="fb5a1ccf-a65f-4902-b56f-6f19daef6027"/>
@@ -2580,6 +2578,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2590,11 +2594,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DA43252-5667-4C8C-9731-F5D0DBAA4343}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22E01A-42DF-4875-95E2-B6A285A4A10C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E22E01A-42DF-4875-95E2-B6A285A4A10C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DA43252-5667-4C8C-9731-F5D0DBAA4343}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
